--- a/Tests/checkIfAllAttributesAreFilledAsNeeded/TestDataAttributesNotFilledAsNeeded.xlsx
+++ b/Tests/checkIfAllAttributesAreFilledAsNeeded/TestDataAttributesNotFilledAsNeeded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicos\Git\RPATestingGetOrdersBot\Tests\checkIfAllAttributesAreFilledAsNeeded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4E6BE-7220-48B2-B60D-6577FCEBD8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BFD59C-3082-4C88-BD39-E36B72817734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,7 +1025,7 @@
     <tableColumn id="1" xr3:uid="{11ACB0A7-72B2-4394-8C44-8BA14D2A2E95}" name="Test"/>
     <tableColumn id="2" xr3:uid="{89EFD1E3-C816-4B1E-9669-6D263A73BCC9}" name="Data"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>45</v>
       </c>
